--- a/edXCrawler/Very_Basic_Data_Analyis_(sample 1).xlsx
+++ b/edXCrawler/Very_Basic_Data_Analyis_(sample 1).xlsx
@@ -23,8 +23,8 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
-    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="2" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3721,7 +3721,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4744,7 +4743,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -22956,7 +22954,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable13" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable13" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -23087,7 +23085,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable15" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable15" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
   <location ref="A5:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
